--- a/Person/张依梦/用户故事.xlsx
+++ b/Person/张依梦/用户故事.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhangyimeng\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA477228-D298-4787-84FA-3A4E353E7F6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B81720B-E43D-4FCE-A184-929D49BF3240}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,16 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>标题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>初试时间估算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户故事</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,6 +123,58 @@
   </si>
   <si>
     <t>推荐可能认识的人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>how to demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始时间估算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户打开APP，主界面有点击拍照按钮，拍照上传后显示食物的种类，热量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成每周的食物热量报告并推送给用户，用户可以选择查看或不查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户将自己当前的状态改为减肥状态，点击查看建议，就可以看到系统提供的又营养又瘦身的建议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当系统检查到用户摄入营养不均衡时，会提醒用户健康饮食 ，用户若不需要可以关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户可以在设置中找到更多建议选项，为产品提供意见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面有一个搜索框，输入食物显示热量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户在注册账号的时候可以选择通过QQ登录，会跳转到QQ界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在“我的”模块中，有联系人选项，可以同步查询通讯录中的好友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户可以选择“推荐”模块，会根据用户喜好推荐周围的食物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户点击“帮我想想”模块，就会为用户根据自己的饮食爱好提供健康的饮食方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户点开“更多知识”选项，会出现关于食物的文章</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -135,9 +183,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="180" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="186" formatCode="&quot;€&quot;\ #,##0.00;[Red]&quot;€&quot;\ #,##0.00"/>
-    <numFmt numFmtId="187" formatCode="d/mm/yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="&quot;€&quot;\ #,##0.00;[Red]&quot;€&quot;\ #,##0.00"/>
+    <numFmt numFmtId="178" formatCode="d/mm/yyyy;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -258,19 +306,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="3" borderId="2">
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="2">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="3" fillId="5" borderId="2" applyNumberFormat="0">
+    <xf numFmtId="178" fontId="3" fillId="5" borderId="2" applyNumberFormat="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -569,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -580,29 +628,34 @@
     <col min="1" max="1" width="23.21875" style="1" customWidth="1"/>
     <col min="2" max="2" width="81.77734375" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.88671875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="59.33203125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="C2" s="1">
         <v>20</v>
@@ -610,13 +663,16 @@
       <c r="D2" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
         <v>5</v>
@@ -624,13 +680,16 @@
       <c r="D3" s="1">
         <v>97</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1">
         <v>5</v>
@@ -638,13 +697,16 @@
       <c r="D4" s="1">
         <v>99</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
@@ -652,13 +714,16 @@
       <c r="D5" s="1">
         <v>98</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
@@ -666,13 +731,16 @@
       <c r="D6" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -680,13 +748,16 @@
       <c r="D7" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -694,13 +765,16 @@
       <c r="D8" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E8" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
@@ -708,13 +782,16 @@
       <c r="D9" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
@@ -722,30 +799,39 @@
       <c r="D10" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="E10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
       </c>
       <c r="D12" s="1">
         <v>60</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
